--- a/Design/10 Project Plan/RecipeAppPlan.xlsx
+++ b/Design/10 Project Plan/RecipeAppPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavazos/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavazos/Desktop/RecipeApp/Design/10 Project Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="26700" windowHeight="22740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
   <si>
     <t>Launch</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Add Friends</t>
   </si>
   <si>
-    <t>Select Friends</t>
-  </si>
-  <si>
     <t>Main.storyboard</t>
   </si>
   <si>
@@ -158,13 +155,16 @@
     <t>Storyboard Files</t>
   </si>
   <si>
-    <t>Dev Complete Target Date: 10/29/2017</t>
-  </si>
-  <si>
     <t>Carrousel Reusable Component (XIB-View)</t>
   </si>
   <si>
     <t>Vijay/Alex</t>
+  </si>
+  <si>
+    <t>Select Friends (Native ContactsUI)</t>
+  </si>
+  <si>
+    <t>Dev Complete Target Date: 10/22/2017</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -400,23 +416,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -429,16 +429,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H38" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H38" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:H38"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Storyboard / General Task" dataDxfId="9"/>
-    <tableColumn id="2" name="Screen (if any)" dataDxfId="8"/>
-    <tableColumn id="3" name="Owner" dataDxfId="7"/>
-    <tableColumn id="4" name="UI Ready" dataDxfId="6"/>
-    <tableColumn id="5" name="Assets Ready" dataDxfId="5"/>
-    <tableColumn id="6" name="Dev Complete" dataDxfId="4"/>
-    <tableColumn id="7" name="Dev Target Date" dataDxfId="3"/>
+    <tableColumn id="1" name="Storyboard / General Task" dataDxfId="7"/>
+    <tableColumn id="2" name="Screen (if any)" dataDxfId="6"/>
+    <tableColumn id="3" name="Owner" dataDxfId="5"/>
+    <tableColumn id="4" name="UI Ready" dataDxfId="4"/>
+    <tableColumn id="5" name="Assets Ready" dataDxfId="3"/>
+    <tableColumn id="6" name="Dev Complete" dataDxfId="2"/>
+    <tableColumn id="7" name="Dev Target Date" dataDxfId="1"/>
     <tableColumn id="8" name="UI Target Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -711,7 +711,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,23 +727,23 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -755,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5">
         <v>43023</v>
@@ -797,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5">
         <v>43023</v>
@@ -814,137 +814,137 @@
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5">
         <v>43023</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5">
         <v>43023</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5">
         <v>43023</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5">
         <v>43023</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5">
         <v>43023</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -974,19 +974,19 @@
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -996,19 +996,19 @@
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
@@ -1026,17 +1026,25 @@
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43027</v>
+      </c>
       <c r="H16" s="5">
         <v>43023</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1044,28 +1052,40 @@
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="5">
+        <v>43028</v>
+      </c>
       <c r="H17" s="5">
         <v>43023</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="5">
+        <v>43028</v>
+      </c>
       <c r="H18" s="5">
         <v>43023</v>
       </c>
@@ -1082,7 +1102,7 @@
     </row>
     <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
@@ -1094,18 +1114,20 @@
     </row>
     <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
@@ -1114,18 +1136,20 @@
     </row>
     <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5">
@@ -1134,18 +1158,20 @@
     </row>
     <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5">
@@ -1154,13 +1180,13 @@
     </row>
     <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1172,16 +1198,16 @@
     </row>
     <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1202,7 +1228,7 @@
     </row>
     <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
@@ -1214,21 +1240,21 @@
     </row>
     <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5">
-        <v>43026</v>
+        <v>43029</v>
       </c>
       <c r="H28" s="5">
         <v>43023</v>
@@ -1236,10 +1262,10 @@
     </row>
     <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -1248,7 +1274,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5">
-        <v>43026</v>
+        <v>43030</v>
       </c>
       <c r="H29" s="5">
         <v>43023</v>
@@ -1266,7 +1292,7 @@
     </row>
     <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -1278,10 +1304,10 @@
     </row>
     <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -1296,13 +1322,13 @@
     </row>
     <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1324,7 +1350,7 @@
     </row>
     <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -1336,13 +1362,13 @@
     </row>
     <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1354,13 +1380,13 @@
     </row>
     <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1372,13 +1398,13 @@
     </row>
     <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>

--- a/Design/10 Project Plan/RecipeAppPlan.xlsx
+++ b/Design/10 Project Plan/RecipeAppPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="26700" windowHeight="22740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>Launch</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Share your result</t>
   </si>
   <si>
-    <t>Create Recipe</t>
-  </si>
-  <si>
     <t>Add Step</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Dev Complete Target Date: 10/22/2017</t>
+  </si>
+  <si>
+    <t>Create Recipe  / Save</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,23 +727,23 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -755,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5">
         <v>43023</v>
@@ -797,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5">
         <v>43023</v>
@@ -814,137 +814,137 @@
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5">
         <v>43023</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5">
         <v>43023</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5">
         <v>43023</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5">
         <v>43023</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5">
         <v>43023</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -974,21 +974,23 @@
     </row>
     <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5">
         <v>43023</v>
@@ -996,21 +998,23 @@
     </row>
     <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
         <v>43023</v>
@@ -1018,7 +1022,7 @@
     </row>
     <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
@@ -1027,13 +1031,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5">
         <v>43027</v>
@@ -1044,7 +1048,7 @@
     </row>
     <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1053,12 +1057,14 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="5">
         <v>43028</v>
       </c>
@@ -1068,21 +1074,23 @@
     </row>
     <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G18" s="5">
         <v>43028</v>
       </c>
@@ -1114,19 +1122,19 @@
     </row>
     <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1136,19 +1144,19 @@
     </row>
     <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1158,19 +1166,19 @@
     </row>
     <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1180,13 +1188,13 @@
     </row>
     <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1198,16 +1206,16 @@
     </row>
     <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1240,7 +1248,7 @@
     </row>
     <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
@@ -1249,9 +1257,11 @@
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5">
         <v>43029</v>
@@ -1262,7 +1272,7 @@
     </row>
     <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -1270,7 +1280,9 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5">
@@ -1292,7 +1304,7 @@
     </row>
     <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -1304,7 +1316,7 @@
     </row>
     <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
@@ -1322,13 +1334,13 @@
     </row>
     <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1362,16 +1374,20 @@
     </row>
     <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
@@ -1380,16 +1396,20 @@
     </row>
     <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
@@ -1398,16 +1418,20 @@
     </row>
     <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5">
